--- a/biology/Zoologie/Éléphant_blanc_(animal)/Éléphant_blanc_(animal).xlsx
+++ b/biology/Zoologie/Éléphant_blanc_(animal)/Éléphant_blanc_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_blanc_(animal)</t>
+          <t>Éléphant_blanc_(animal)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un éléphant blanc est un éléphant albinos. Extrêmement rares, les éléphants blancs sont considérés en Asie comme des joyaux inestimables. Leur particularité est perçue comme une manifestation visible de leur origine divine ; en conséquence de quoi, on croit depuis toujours qu'ils sont dotés de pouvoirs magiques.
-Dans l'hindouisme, la monture (vahana) du dieu Indra est un éléphant blanc, Airavata, souvent représenté avec plusieurs têtes. Dans le bouddhisme, la mère du Bouddha (Siddhartha Gautama) est censée avoir rêvé au cours de sa grossesse d'un éléphant blanc qui lui offrait une fleur de lotus, symbole de pureté[1].
+Dans l'hindouisme, la monture (vahana) du dieu Indra est un éléphant blanc, Airavata, souvent représenté avec plusieurs têtes. Dans le bouddhisme, la mère du Bouddha (Siddhartha Gautama) est censée avoir rêvé au cours de sa grossesse d'un éléphant blanc qui lui offrait une fleur de lotus, symbole de pureté.
 À l'époque historique, deux éléphants blancs ont été offerts à des souverains européens : Abul-Abbas († 810) à Charlemagne et Hanno († 1516) au pape Léon X.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_blanc_(animal)</t>
+          <t>Éléphant_blanc_(animal)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>L'éléphant blanc en Asie du Sud-Est</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Asie du Sud-Est, la possession d'un éléphant blanc est l'apanage des rois et des princes. C'est un symbole royal de souveraineté.
 Lorsqu'à la fin du XIIIe siècle, Wareru envoya un tribut à son beau-père Ramkhamhaeng, roi de Sukhothaï (dans l'actuelle Thaïlande), celui-ci le reconnut comme roi d'Hanthawaddy (dans l'actuelle Basse-Birmanie) en lui faisant présent d'un éléphant blanc. De même, l'Ordre de l'Éléphant blanc a été créé par le roi Rama IV en 1861 pour être remis aux souverains étrangers.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_blanc_(animal)</t>
+          <t>Éléphant_blanc_(animal)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Abul-Abbas, l'éléphant blanc de Charlemagne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 797, Charlemagne avait envoyé à Hâroun ar-Rachîd, calife de Bagdad, une ambassade menée par un marchand juif, Isaac, connaisseur de la langue arabe. Celui-ci en revint cinq ans plus tard, le 20 juillet 802. Passé par Jérusalem, puis longeant la rive sud de la Méditerranée jusqu'à Carthage, il y avait pris le bateau et débarqua à Marseille. Il atteignit Portovenere en octobre 801, passa l'hiver à Verceil, et au printemps remonta probablement la vallée du Rhône, jusqu'à la résidence de l'empereur à Aix-la-Chapelle, où il arriva le 1er juillet 802.
 Parmi les précieux cadeaux dont il était porteur se trouvait un éléphant blanc d'origine indienne, qui fit forte impression. On le prénomma Abul Abbas, le « père d'Abbâs » et Charlemagne l’exhiba à plusieurs occasions devant ses hôtes de marque. Il fut logé à Augsbourg, en Bavière du Sud. En 804, lorsque le roi Godfried de Danemark attaqua un village, Charlemagne envoya son éléphant avec les troupes qu'il mobilisa contre lui.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_blanc_(animal)</t>
+          <t>Éléphant_blanc_(animal)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Hanno, l'éléphant blanc de Léon X</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanno fut offert par le roi Manuel Ier de Portugal (1469-1521) au pape Léon X (1475-1521) pour son couronnement. Il est arrivé à Rome en 1514 et mort deux ans plus tard.
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_blanc_(animal)</t>
+          <t>Éléphant_blanc_(animal)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Les éléphants blancs dans la fiction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écrivain français George Sand publie en 1876 dans ses Contes d'une grand-mère un récit fantastique, « Le chien et la fleur sacrée », où il est question des éléphants blancs sacrés d'Asie au XIXe siècle.
 </t>
